--- a/Problem0/workbook.xlsx
+++ b/Problem0/workbook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
   <si>
     <t>|</t>
   </si>
@@ -73,6 +73,81 @@
   </si>
   <si>
     <t>i*2;</t>
+  </si>
+  <si>
+    <t>|64</t>
+  </si>
+  <si>
+    <t>|65</t>
+  </si>
+  <si>
+    <t>|66}</t>
+  </si>
+  <si>
+    <t>|67</t>
+  </si>
+  <si>
+    <t>|68</t>
+  </si>
+  <si>
+    <t>|69int</t>
+  </si>
+  <si>
+    <t>|70</t>
+  </si>
+  <si>
+    <t>|71</t>
+  </si>
+  <si>
+    <t>3000){</t>
+  </si>
+  <si>
+    <t>|72</t>
+  </si>
+  <si>
+    <t>|73</t>
+  </si>
+  <si>
+    <t>|74</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>|75</t>
+  </si>
+  <si>
+    <t>|76</t>
+  </si>
+  <si>
+    <t>|77</t>
+  </si>
+  <si>
+    <t>|78</t>
+  </si>
+  <si>
+    <t>i+1000;</t>
+  </si>
+  <si>
+    <t>|79</t>
+  </si>
+  <si>
+    <t>|80</t>
+  </si>
+  <si>
+    <t>|81</t>
+  </si>
+  <si>
+    <t>solve(15000);</t>
+  </si>
+  <si>
+    <t>|82</t>
+  </si>
+  <si>
+    <t>|83}</t>
+  </si>
+  <si>
+    <t>|84</t>
   </si>
 </sst>
 </file>
@@ -121,8 +196,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -130,9 +207,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -161,17 +240,18 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="11"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$A$13</c:f>
+              <c:f>Sheet1!$A$1:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>3.0</c:v>
                 </c:pt>
@@ -206,162 +286,118 @@
                   <c:v>3072.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6144.0</c:v>
+                  <c:v>4072.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12288.0</c:v>
+                  <c:v>5072.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6072.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7072.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8072.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9072.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10072.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11072.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12072.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13072.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14072.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$13</c:f>
+              <c:f>Sheet1!$B$1:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>1.3E-5</c:v>
+                  <c:v>1.5E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4E-6</c:v>
+                  <c:v>3E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8E-6</c:v>
+                  <c:v>7E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6E-5</c:v>
+                  <c:v>2.9E-5</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>0.000102</c:v>
+                  <c:v>0.000119</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
-                  <c:v>0.000409</c:v>
+                  <c:v>0.000468</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>0.001643</c:v>
+                  <c:v>0.001911</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>0.005695</c:v>
+                  <c:v>0.00711</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>0.02177</c:v>
+                  <c:v>0.025289</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>0.107688</c:v>
+                  <c:v>0.117913</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>0.393696</c:v>
+                  <c:v>0.449942</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>1.44058</c:v>
+                  <c:v>0.673586</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>5.77442</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$1:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>96.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>192.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>384.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>768.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1536.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3072.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6144.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12288.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$1:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1.3E-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4E-6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8E-6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.6E-5</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>0.000102</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>0.000409</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>0.001643</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>0.005695</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>0.02177</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>0.107688</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>0.393696</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>1.44058</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>5.77442</c:v>
+                  <c:v>1.02283</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>1.43455</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>2.18144</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>2.67635</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>3.39039</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>4.08809</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>4.70236</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>5.60947</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>6.44443</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>7.63189</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>8.55699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -369,6 +405,7 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -376,11 +413,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2111073736"/>
-        <c:axId val="-2111444216"/>
+        <c:axId val="-2106935848"/>
+        <c:axId val="-2106397064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2111073736"/>
+        <c:axId val="-2106935848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -409,12 +446,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111444216"/>
+        <c:crossAx val="-2106397064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2111444216"/>
+        <c:axId val="-2106397064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -444,7 +481,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111073736"/>
+        <c:crossAx val="-2106935848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -485,14 +522,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="11"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$A$13</c:f>
+              <c:f>Sheet1!$A$1:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>3.0</c:v>
                 </c:pt>
@@ -527,58 +565,118 @@
                   <c:v>3072.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6144.0</c:v>
+                  <c:v>4072.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12288.0</c:v>
+                  <c:v>5072.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6072.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7072.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8072.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9072.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10072.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11072.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12072.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13072.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14072.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$13</c:f>
+              <c:f>Sheet1!$B$1:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>1.3E-5</c:v>
+                  <c:v>1.5E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4E-6</c:v>
+                  <c:v>3E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8E-6</c:v>
+                  <c:v>7E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6E-5</c:v>
+                  <c:v>2.9E-5</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>0.000102</c:v>
+                  <c:v>0.000119</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
-                  <c:v>0.000409</c:v>
+                  <c:v>0.000468</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>0.001643</c:v>
+                  <c:v>0.001911</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>0.005695</c:v>
+                  <c:v>0.00711</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>0.02177</c:v>
+                  <c:v>0.025289</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>0.107688</c:v>
+                  <c:v>0.117913</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>0.393696</c:v>
+                  <c:v>0.449942</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>1.44058</c:v>
+                  <c:v>0.673586</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>5.77442</c:v>
+                  <c:v>1.02283</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>1.43455</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>2.18144</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>2.67635</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>3.39039</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>4.08809</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>4.70236</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>5.60947</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>6.44443</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>7.63189</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>8.55699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -593,11 +691,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2106346856"/>
-        <c:axId val="-2101101320"/>
+        <c:axId val="-2105701176"/>
+        <c:axId val="-2127210760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2106346856"/>
+        <c:axId val="-2105701176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -634,12 +732,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2101101320"/>
+        <c:crossAx val="-2127210760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2101101320"/>
+        <c:axId val="-2127210760"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -670,7 +768,564 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2106346856"/>
+        <c:crossAx val="-2105701176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$26:$A$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>192.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>384.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>768.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1536.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3072.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4072.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5072.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6072.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7072.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8072.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9072.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10072.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11072.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12072.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13072.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14072.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$26:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1.3E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7E-5</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.000102</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.00041</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.001708</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.005732</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.022188</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.109259</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.4384</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0.669701</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>1.02758</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>1.47778</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>2.02443</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>2.6196</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>3.31035</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>4.07122</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>4.695979999999999</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>5.60631</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>6.55605</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>7.63031</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>8.53951</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2103599528"/>
+        <c:axId val="-2107327048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2103599528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Inputs (Linear Scale)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2107327048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2107327048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time to Find Minimum</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2103599528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$26:$A$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>192.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>384.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>768.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1536.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3072.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4072.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5072.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6072.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7072.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8072.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9072.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10072.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11072.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12072.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13072.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14072.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$26:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1.3E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7E-5</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.000102</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.00041</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.001708</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.005732</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.022188</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.109259</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.4384</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0.669701</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>1.02758</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>1.47778</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>2.02443</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>2.6196</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>3.31035</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>4.07122</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>4.695979999999999</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>5.60631</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>6.55605</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>7.63031</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>8.53951</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2099837976"/>
+        <c:axId val="-2101908360"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2099837976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Inputs (Logarithmic</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Scale)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2101908360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2101908360"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time to Find Minimum</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2099837976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -691,13 +1346,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -721,13 +1376,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
@@ -746,6 +1401,68 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1076,203 +1793,614 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CK13"/>
+  <dimension ref="A1:CJ48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Y26" sqref="Y26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="X50" sqref="X50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:89">
+    <row r="1" spans="1:88">
       <c r="A1">
         <v>3</v>
       </c>
       <c r="B1" s="1">
-        <v>1.2999999999999999E-5</v>
-      </c>
-      <c r="CE1" t="s">
+        <v>1.5E-5</v>
+      </c>
+      <c r="CD1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:89">
+    <row r="2" spans="1:88">
       <c r="A2">
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="CG2" t="s">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="CF2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:89">
+    <row r="3" spans="1:88">
       <c r="A3">
         <v>12</v>
       </c>
       <c r="B3" s="1">
-        <v>7.9999999999999996E-6</v>
-      </c>
-      <c r="CF3" t="s">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="CE3" t="s">
         <v>0</v>
       </c>
+      <c r="CH3" t="s">
+        <v>3</v>
+      </c>
       <c r="CI3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CJ3" t="s">
-        <v>4</v>
-      </c>
-      <c r="CK3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:89">
+    <row r="4" spans="1:88">
       <c r="A4">
         <v>24</v>
       </c>
       <c r="B4" s="1">
-        <v>2.5999999999999998E-5</v>
-      </c>
-      <c r="CD4" t="s">
+        <v>2.9E-5</v>
+      </c>
+      <c r="CC4" t="s">
         <v>0</v>
       </c>
+      <c r="CF4" t="s">
+        <v>6</v>
+      </c>
       <c r="CG4" t="s">
-        <v>6</v>
-      </c>
-      <c r="CH4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:89">
+    <row r="5" spans="1:88">
       <c r="A5">
         <v>48</v>
       </c>
       <c r="B5">
-        <v>1.02E-4</v>
-      </c>
-      <c r="CC5" t="s">
+        <v>1.1900000000000001E-4</v>
+      </c>
+      <c r="CB5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:89">
+    <row r="6" spans="1:88">
       <c r="A6">
         <v>96</v>
       </c>
       <c r="B6">
-        <v>4.0900000000000002E-4</v>
-      </c>
-      <c r="CC6" t="s">
+        <v>4.6799999999999999E-4</v>
+      </c>
+      <c r="CB6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:89">
+    <row r="7" spans="1:88">
       <c r="A7">
         <v>192</v>
       </c>
       <c r="B7">
-        <v>1.6429999999999999E-3</v>
-      </c>
-      <c r="CB7" t="s">
+        <v>1.9109999999999999E-3</v>
+      </c>
+      <c r="CA7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:89">
+    <row r="8" spans="1:88">
       <c r="A8">
         <v>384</v>
       </c>
       <c r="B8">
-        <v>5.6950000000000004E-3</v>
+        <v>7.11E-3</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>8</v>
       </c>
       <c r="CB8" t="s">
-        <v>8</v>
-      </c>
-      <c r="CC8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:89">
+    <row r="9" spans="1:88">
       <c r="A9">
         <v>768</v>
       </c>
       <c r="B9">
-        <v>2.1770000000000001E-2</v>
-      </c>
-      <c r="CC9" t="s">
+        <v>2.5288999999999999E-2</v>
+      </c>
+      <c r="CB9" t="s">
         <v>0</v>
       </c>
+      <c r="CD9" t="s">
+        <v>10</v>
+      </c>
       <c r="CE9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CF9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CG9" t="s">
-        <v>12</v>
-      </c>
-      <c r="CH9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:89">
+    <row r="10" spans="1:88">
       <c r="A10">
         <v>1536</v>
       </c>
       <c r="B10">
-        <v>0.10768800000000001</v>
-      </c>
-      <c r="CA10" t="s">
+        <v>0.117913</v>
+      </c>
+      <c r="BZ10" t="s">
         <v>0</v>
       </c>
+      <c r="CB10" t="s">
+        <v>14</v>
+      </c>
       <c r="CC10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CD10" t="s">
-        <v>15</v>
-      </c>
-      <c r="CE10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:89">
+    <row r="11" spans="1:88">
       <c r="A11">
         <v>3072</v>
       </c>
       <c r="B11">
-        <v>0.39369599999999999</v>
-      </c>
-      <c r="CA11" t="s">
+        <v>0.44994200000000001</v>
+      </c>
+      <c r="BZ11" t="s">
         <v>0</v>
       </c>
-      <c r="CE11" t="s">
+      <c r="CD11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:89">
+    <row r="12" spans="1:88">
       <c r="A12">
-        <v>6144</v>
+        <v>4072</v>
       </c>
       <c r="B12">
-        <v>1.44058</v>
-      </c>
-      <c r="CB12" t="s">
+        <v>0.67358600000000002</v>
+      </c>
+      <c r="CA12" t="s">
         <v>0</v>
       </c>
+      <c r="CE12" t="s">
+        <v>11</v>
+      </c>
       <c r="CF12" t="s">
+        <v>12</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:88">
+      <c r="A13">
+        <v>5072</v>
+      </c>
+      <c r="B13">
+        <v>1.0228299999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:88">
+      <c r="A14">
+        <v>6072</v>
+      </c>
+      <c r="B14">
+        <v>1.43455</v>
+      </c>
+    </row>
+    <row r="15" spans="1:88">
+      <c r="A15">
+        <v>7072</v>
+      </c>
+      <c r="B15">
+        <v>2.1814399999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:88">
+      <c r="A16">
+        <v>8072</v>
+      </c>
+      <c r="B16">
+        <v>2.6763499999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:88">
+      <c r="A17">
+        <v>9072</v>
+      </c>
+      <c r="B17">
+        <v>3.39039</v>
+      </c>
+    </row>
+    <row r="18" spans="1:88">
+      <c r="A18">
+        <v>10072</v>
+      </c>
+      <c r="B18">
+        <v>4.0880900000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:88">
+      <c r="A19">
+        <v>11072</v>
+      </c>
+      <c r="B19">
+        <v>4.7023599999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:88">
+      <c r="A20">
+        <v>12072</v>
+      </c>
+      <c r="B20">
+        <v>5.60947</v>
+      </c>
+    </row>
+    <row r="21" spans="1:88">
+      <c r="A21">
+        <v>13072</v>
+      </c>
+      <c r="B21">
+        <v>6.4444299999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:88">
+      <c r="A22">
+        <v>14072</v>
+      </c>
+      <c r="B22">
+        <v>7.6318900000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:88">
+      <c r="A23">
+        <v>15000</v>
+      </c>
+      <c r="B23">
+        <v>8.5569900000000008</v>
+      </c>
+    </row>
+    <row r="26" spans="1:88">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="CD26" t="s">
+        <v>18</v>
+      </c>
+      <c r="CG26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CH26" t="s">
+        <v>4</v>
+      </c>
+      <c r="CI26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:88">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27" s="1">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="CF27" t="s">
+        <v>19</v>
+      </c>
+      <c r="CI27" t="s">
+        <v>6</v>
+      </c>
+      <c r="CJ27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:88">
+      <c r="A28">
+        <v>12</v>
+      </c>
+      <c r="B28" s="1">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="CE28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:88">
+      <c r="A29">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2.6999999999999999E-5</v>
+      </c>
+      <c r="CC29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:88">
+      <c r="A30">
+        <v>48</v>
+      </c>
+      <c r="B30">
+        <v>1.02E-4</v>
+      </c>
+      <c r="CB30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:88">
+      <c r="A31">
+        <v>96</v>
+      </c>
+      <c r="B31">
+        <v>4.0999999999999999E-4</v>
+      </c>
+      <c r="CC31" t="s">
+        <v>23</v>
+      </c>
+      <c r="CD31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:88">
+      <c r="A32">
+        <v>192</v>
+      </c>
+      <c r="B32">
+        <v>1.7080000000000001E-3</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>24</v>
+      </c>
+      <c r="CC32" t="s">
+        <v>10</v>
+      </c>
+      <c r="CD32" t="s">
         <v>11</v>
       </c>
-      <c r="CG12" t="s">
+      <c r="CE32" t="s">
         <v>12</v>
       </c>
-      <c r="CH12" t="s">
+      <c r="CF32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:86">
+      <c r="A33">
+        <v>384</v>
+      </c>
+      <c r="B33">
+        <v>5.7320000000000001E-3</v>
+      </c>
+      <c r="CA33" t="s">
+        <v>25</v>
+      </c>
+      <c r="CC33" t="s">
+        <v>14</v>
+      </c>
+      <c r="CD33" t="s">
+        <v>15</v>
+      </c>
+      <c r="CE33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:86">
+      <c r="A34">
+        <v>768</v>
+      </c>
+      <c r="B34">
+        <v>2.2187999999999999E-2</v>
+      </c>
+      <c r="CA34" t="s">
+        <v>27</v>
+      </c>
+      <c r="CE34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:86">
+      <c r="A35">
+        <v>1536</v>
+      </c>
+      <c r="B35">
+        <v>0.109259</v>
+      </c>
+      <c r="BZ35" t="s">
+        <v>28</v>
+      </c>
+      <c r="CD35" t="s">
+        <v>11</v>
+      </c>
+      <c r="CE35" t="s">
+        <v>12</v>
+      </c>
+      <c r="CF35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:89">
-      <c r="A13">
-        <v>12288</v>
-      </c>
-      <c r="B13">
-        <v>5.7744200000000001</v>
+    <row r="36" spans="1:86">
+      <c r="A36">
+        <v>3072</v>
+      </c>
+      <c r="B36">
+        <v>0.43840000000000001</v>
+      </c>
+      <c r="CB36" t="s">
+        <v>29</v>
+      </c>
+      <c r="CD36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:86">
+      <c r="A37">
+        <v>4072</v>
+      </c>
+      <c r="B37">
+        <v>0.66970099999999999</v>
+      </c>
+      <c r="BZ37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:86">
+      <c r="A38">
+        <v>5072</v>
+      </c>
+      <c r="B38">
+        <v>1.0275799999999999</v>
+      </c>
+      <c r="CA38" t="s">
+        <v>32</v>
+      </c>
+      <c r="CC38" t="s">
+        <v>14</v>
+      </c>
+      <c r="CD38" t="s">
+        <v>15</v>
+      </c>
+      <c r="CE38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:86">
+      <c r="A39">
+        <v>6072</v>
+      </c>
+      <c r="B39">
+        <v>1.4777800000000001</v>
+      </c>
+      <c r="CA39" t="s">
+        <v>33</v>
+      </c>
+      <c r="CC39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:86">
+      <c r="A40">
+        <v>7072</v>
+      </c>
+      <c r="B40">
+        <v>2.0244300000000002</v>
+      </c>
+      <c r="CA40" t="s">
+        <v>34</v>
+      </c>
+      <c r="CF40" t="s">
+        <v>11</v>
+      </c>
+      <c r="CG40" t="s">
+        <v>12</v>
+      </c>
+      <c r="CH40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:86">
+      <c r="A41">
+        <v>8072</v>
+      </c>
+      <c r="B41">
+        <v>2.6196000000000002</v>
+      </c>
+      <c r="CB41" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:86">
+      <c r="A42">
+        <v>9072</v>
+      </c>
+      <c r="B42">
+        <v>3.3103500000000001</v>
+      </c>
+      <c r="CA42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:86">
+      <c r="A43">
+        <v>10072</v>
+      </c>
+      <c r="B43">
+        <v>4.0712200000000003</v>
+      </c>
+      <c r="BZ43" t="s">
+        <v>38</v>
+      </c>
+      <c r="CB43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:86">
+      <c r="A44">
+        <v>11072</v>
+      </c>
+      <c r="B44">
+        <v>4.6959799999999996</v>
+      </c>
+      <c r="BZ44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:86">
+      <c r="A45">
+        <v>12072</v>
+      </c>
+      <c r="B45">
+        <v>5.6063099999999997</v>
+      </c>
+      <c r="BZ45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:86">
+      <c r="A46">
+        <v>13072</v>
+      </c>
+      <c r="B46">
+        <v>6.5560499999999999</v>
+      </c>
+      <c r="BZ46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:86">
+      <c r="A47">
+        <v>14072</v>
+      </c>
+      <c r="B47">
+        <v>7.6303099999999997</v>
+      </c>
+      <c r="BZ47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:86">
+      <c r="A48">
+        <v>15000</v>
+      </c>
+      <c r="B48">
+        <v>8.5395099999999999</v>
       </c>
     </row>
   </sheetData>
